--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353700.2385211304</v>
+        <v>-355587.8200375325</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.9883291381868</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>46.59802246633417</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>89.30725745073089</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>140.1997601007689</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>307.8765544416924</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>60.14397712450032</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.086160521224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>17.52926025969112</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>121.3086240184588</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>71.16968012254813</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.7337597227494</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.451488368881</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.27142932050988</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>116.3407940976804</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.4735865576011</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.4106056624395</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532058</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>135.0001192339615</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>2.496989041814473</v>
       </c>
       <c r="S22" t="n">
-        <v>193.2447533161205</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>31.13654107019532</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>58.70811713027407</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>39.7953535585718</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>82.16809304408541</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437406</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2595.051691986762</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2376.417024958825</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2122.655239596916</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.655239596916</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2122.655239596916</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>2122.655239596916</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>586.5130649127285</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1521.073833303755</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C5" t="n">
-        <v>1521.073833303755</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1521.073833303755</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
         <v>1210.087414675782</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2581.368909503766</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2581.368909503766</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y5" t="n">
-        <v>1521.073833303755</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,40 +4653,40 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>398.3338608103787</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>71.64930531500195</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1700.479318410387</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1331.516801469976</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>973.2511028632252</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>587.4628502649809</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>176.4769454753734</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.618650386199</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.618650386199</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y8" t="n">
-        <v>1700.479318410387</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770186</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.8312459770186</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,16 +5042,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.0375086983736</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1013257704667</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655739</v>
+        <v>1070.40520340126</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286133</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286133</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286133</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>560.7969603949464</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>560.7969603949464</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>410.6803209826106</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>262.7672274002175</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>115.8772799023072</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>115.8772799023072</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1368.198487060489</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1368.198487060489</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1368.198487060489</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1113.513998854602</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>1113.513998854602</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>781.5895395384765</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>560.7969603949464</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228585</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>594.9539715530982</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1496.394059404555</v>
       </c>
       <c r="S22" t="n">
-        <v>1192.644446598394</v>
+        <v>1296.474049320107</v>
       </c>
       <c r="T22" t="n">
-        <v>968.8590313878996</v>
+        <v>1072.688634109613</v>
       </c>
       <c r="U22" t="n">
-        <v>968.8590313878996</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="V22" t="n">
-        <v>714.1745431820127</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W22" t="n">
-        <v>714.1745431820127</v>
+        <v>494.1428252862102</v>
       </c>
       <c r="X22" t="n">
-        <v>486.1849922839954</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,16 +5972,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5996,7 +5996,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
         <v>1283.483062980063</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.465218971846</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1267.545208887398</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765182</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706313</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6245,10 +6245,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,7 +6488,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6540,13 +6540,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163777</v>
+        <v>439.5324299542199</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698416</v>
+        <v>439.5324299542199</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430015</v>
+        <v>439.5324299542199</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>356.5343561723154</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>265.405273955776</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652466</v>
+        <v>565.4200295030887</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7318,25 +7318,25 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,10 +7555,10 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,16 +7567,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>79.34404369770247</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>135.7968492261476</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>130.440241809935</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>68.51020432116377</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,13 +23710,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.3938331833852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>83.58453411813328</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.4673633619783</v>
       </c>
       <c r="S22" t="n">
-        <v>4.676056667482755</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>78.82781133359754</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338611</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338589</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>227.8148812063169</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>53.61686283108343</v>
+        <v>93.41221638965517</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>9.06261297392658</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897894</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.867395255105271e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26320,25 +26320,25 @@
         <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
         <v>234617.4358426251</v>
       </c>
       <c r="G2" t="n">
+        <v>234617.4358426252</v>
+      </c>
+      <c r="H2" t="n">
         <v>234617.4358426251</v>
       </c>
-      <c r="H2" t="n">
-        <v>234617.4358426252</v>
-      </c>
       <c r="I2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="J2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
-        <v>244093.2824071619</v>
+        <v>244093.2824071618</v>
       </c>
       <c r="L2" t="n">
         <v>246312.5309592851</v>
@@ -26350,7 +26350,7 @@
         <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592851</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284576</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26436,7 +26436,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26445,10 +26445,10 @@
         <v>33210.29213563569</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,13 +26485,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583289.3845698916</v>
+        <v>-583289.3845698917</v>
       </c>
       <c r="C6" t="n">
-        <v>6678.494644652848</v>
+        <v>6678.494644652819</v>
       </c>
       <c r="D6" t="n">
-        <v>6678.494644652732</v>
+        <v>6678.49464465279</v>
       </c>
       <c r="E6" t="n">
-        <v>-397575.5962044268</v>
+        <v>-397673.0553303986</v>
       </c>
       <c r="F6" t="n">
-        <v>127584.4402724694</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="G6" t="n">
-        <v>127584.4402724694</v>
+        <v>127486.9811464973</v>
       </c>
       <c r="H6" t="n">
-        <v>127584.4402724696</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="I6" t="n">
-        <v>127584.4402724695</v>
+        <v>127486.9811464973</v>
       </c>
       <c r="J6" t="n">
-        <v>-48838.77892012343</v>
+        <v>-48936.23804609575</v>
       </c>
       <c r="K6" t="n">
-        <v>70092.17643845771</v>
+        <v>70073.68270052318</v>
       </c>
       <c r="L6" t="n">
         <v>100790.0614756333</v>
       </c>
       <c r="M6" t="n">
-        <v>-23668.04695733705</v>
+        <v>-23668.04695733692</v>
       </c>
       <c r="N6" t="n">
         <v>111132.9682765001</v>
       </c>
       <c r="O6" t="n">
-        <v>111132.9682765001</v>
+        <v>111132.9682765</v>
       </c>
       <c r="P6" t="n">
-        <v>66970.36297365444</v>
+        <v>66970.3629736544</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,7 +26762,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>11.7455125252938</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>127.8176903426374</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>77.93956364789695</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>78.38489325132593</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>74.05381563056937</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>114.2717356844712</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.74581966071327</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>117.4363615326471</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>292.4755460023362</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>278.0712885948649</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.0982204591879</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.2581670201562</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29560,10 +29560,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35738,16 +35738,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941227</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
